--- a/7MartGrocceryProject/src/test/resources/Testdata.xlsx
+++ b/7MartGrocceryProject/src/test/resources/Testdata.xlsx
@@ -3,42 +3,30 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ParvathySomanathanPi\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F999349E-167C-481F-A9C7-95D2818CC59A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{992B7427-266E-410A-9B77-027034BCDB82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{0F343A36-9DBD-47B1-826F-F4F0F7444146}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="5" xr2:uid="{0F343A36-9DBD-47B1-826F-F4F0F7444146}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
     <sheet name="News" sheetId="2" r:id="rId2"/>
     <sheet name="Admin" sheetId="3" r:id="rId3"/>
+    <sheet name="Category" sheetId="4" r:id="rId4"/>
+    <sheet name="Contact" sheetId="5" r:id="rId5"/>
+    <sheet name="Footer" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:L10"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>Username</t>
   </si>
@@ -55,23 +43,46 @@
     <t>This ia a test news</t>
   </si>
   <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>minnowe</t>
+    <t>test</t>
+  </si>
+  <si>
+    <t>tester</t>
+  </si>
+  <si>
+    <t>Ram</t>
+  </si>
+  <si>
+    <t>Fruit</t>
+  </si>
+  <si>
+    <t>Kiwi</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>harrytest@gmail.com</t>
+  </si>
+  <si>
+    <t>harsha@test.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -94,13 +105,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -433,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D58CB1EF-3C62-482D-980E-E05B526C1451}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -455,6 +469,30 @@
       </c>
       <c r="B2" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -492,31 +530,112 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33AEC6FD-7169-4E36-8BF7-8329B8C19410}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6DB2460-D363-420D-9C19-019C194AB6C8}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47CD1F44-25BF-4D77-BC6D-D0808D55E6FF}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{CB1D07E1-6E89-4E73-BA92-C5B41539161C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B8CC421-1CA3-4D83-AB34-F37AB062F623}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{2174556D-26CD-4342-8883-4200BFA35787}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>